--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120239.344205605</v>
+        <v>1118351.762689203</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>548241.1113570876</v>
+        <v>190858.8243045312</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>138.3254349691664</v>
       </c>
       <c r="F2" t="n">
-        <v>178.6210521566327</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>73.45289880148462</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.35002255071618</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>145.7193814678359</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>7.278229317332938</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.35002255071629</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>129.1545046242535</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>282.5301023106957</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>213.6743229269902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
     </row>
     <row r="11">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.250241677064679</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>59.7794577366495</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>276.7756072553685</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,7 +2056,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151914</v>
+        <v>93.87916681139897</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>84.99328957525772</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>274.8625474826461</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274229</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>96.84207451769305</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>94.16960696317011</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139863</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>91.23070601801201</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437409</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>73.63293975148</v>
+        <v>58.73853494509689</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523563</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251693005</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463113</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.2873553346313</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1483.703156598057</v>
+        <v>1176.081332301712</v>
       </c>
       <c r="C2" t="n">
-        <v>1114.740639657645</v>
+        <v>1176.081332301712</v>
       </c>
       <c r="D2" t="n">
-        <v>1114.740639657645</v>
+        <v>1176.081332301712</v>
       </c>
       <c r="E2" t="n">
-        <v>728.952387059401</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1562.681172365834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>1562.681172365834</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.0275768541693</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541693</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541693</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X4" t="n">
-        <v>444.0275768541693</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.0275768541693</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1757.312204670903</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C5" t="n">
-        <v>1388.349687730491</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>1030.083989123741</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1030.083989123741</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>619.0980843341331</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>201.13427623232</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>201.13427623232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.451536646714</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.312204670903</v>
+        <v>1560.797780174034</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>368.8844281164661</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>773.500346212138</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2627.754532504893</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>705.5532038521756</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>450.8687156462887</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W7" t="n">
-        <v>450.8687156462887</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1503.604727733592</v>
+        <v>764.2362323993566</v>
       </c>
       <c r="C8" t="n">
-        <v>1134.642210793181</v>
+        <v>764.2362323993566</v>
       </c>
       <c r="D8" t="n">
-        <v>1134.642210793181</v>
+        <v>764.2362323993566</v>
       </c>
       <c r="E8" t="n">
-        <v>748.8539581949365</v>
+        <v>764.2362323993566</v>
       </c>
       <c r="F8" t="n">
-        <v>337.8680534053289</v>
+        <v>353.250327609749</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>339.3269235483399</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4841,13 +4841,13 @@
         <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2267.209817970484</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X8" t="n">
-        <v>1893.744059709404</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y8" t="n">
-        <v>1503.604727733592</v>
+        <v>1150.836072463478</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>512.2963347852319</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,22 +5051,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M12" t="n">
-        <v>647.5155168583368</v>
+        <v>970.0833206816486</v>
       </c>
       <c r="N12" t="n">
-        <v>1451.927095122488</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5255,73 +5255,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028584</v>
+        <v>987.4051452743433</v>
       </c>
       <c r="M15" t="n">
-        <v>417.5524109899876</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N15" t="n">
-        <v>1221.963989254138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O15" t="n">
-        <v>1891.427750556798</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2411.728372292545</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1019.424940013486</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>764.7404518075996</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>475.3232817706389</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>247.3337308726216</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,25 +5534,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.893885873787</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,13 +5695,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
         <v>869.3083006011507</v>
@@ -5713,10 +5713,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5753,10 +5753,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>566.6947980556459</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>566.6947980556459</v>
       </c>
       <c r="M21" t="n">
-        <v>334.288126757867</v>
+        <v>887.0301175853477</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>993.2877828087273</v>
+        <v>183.0688991120613</v>
       </c>
       <c r="C22" t="n">
-        <v>824.3515998808205</v>
+        <v>183.0688991120613</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684847</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684847</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W22" t="n">
-        <v>1221.277333706745</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X22" t="n">
-        <v>993.2877828087273</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y22" t="n">
-        <v>993.2877828087273</v>
+        <v>364.7173639423009</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578666</v>
+        <v>1442.796708849623</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022017</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,31 +6163,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>786.082206476519</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6203,19 +6203,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6236,16 +6236,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6309,13 +6309,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605665</v>
+        <v>647.5155168583368</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
         <v>1797.533454227377</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1292.720352005415</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1003.591713218973</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V28" t="n">
-        <v>1003.591713218973</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>714.1745431820127</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,31 +6528,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028583</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605665</v>
+        <v>1453.012798589759</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924717</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O30" t="n">
         <v>1797.533454227377</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.6915747572947</v>
+        <v>565.4200295030889</v>
       </c>
       <c r="C31" t="n">
-        <v>470.5162571107585</v>
+        <v>452.2447118565528</v>
       </c>
       <c r="D31" t="n">
-        <v>376.1604829797937</v>
+        <v>452.2447118565528</v>
       </c>
       <c r="E31" t="n">
-        <v>284.0082546787713</v>
+        <v>360.0924835555305</v>
       </c>
       <c r="F31" t="n">
-        <v>284.0082546787713</v>
+        <v>268.963401338991</v>
       </c>
       <c r="G31" t="n">
-        <v>171.5937982799626</v>
+        <v>156.5489449401817</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.81182489927</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970147</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465076</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.49587854056</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.83957378497</v>
+        <v>902.6804289818946</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683231</v>
+        <v>730.4517433652481</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.5791743061636</v>
+        <v>565.4200295030889</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6710,25 +6710,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>990.9427979105848</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1335.463453548203</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2004.927214850862</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2525.22783658661</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6871,25 +6871,25 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6941,22 +6941,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,22 +7017,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605665</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924717</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578666</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022017</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,13 +7345,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7415,22 +7415,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>229.0376539332498</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>549.3729734629516</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>248.1505154596173</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>373.5080755174547</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>987.4051452743433</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083206</v>
@@ -7795,31 +7795,31 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>403.7190434820931</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>370.862340184928</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849281</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849281</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>294.526494115776</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>145.0826650476788</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>163.9965794215632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>133.8953512967693</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>9.461745143208816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338591</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>63.62218344295464</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>11.66045085394492</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>124.7054865406962</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>82.3938331833854</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3779540952191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>192.3581855871787</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896552</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>20.07763198749912</v>
+        <v>34.97203679388208</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.548983163957018e-12</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>977572.6493442724</v>
+        <v>977572.6493442726</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>977572.6493442724</v>
+        <v>977572.6493442726</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977572.6493442727</v>
+        <v>977572.6493442724</v>
       </c>
     </row>
     <row r="11">
@@ -26314,40 +26314,40 @@
         <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.059737709</v>
       </c>
       <c r="F2" t="n">
         <v>391029.0597377089</v>
       </c>
       <c r="G2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377091</v>
       </c>
       <c r="H2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377091</v>
       </c>
       <c r="I2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.059737709</v>
       </c>
       <c r="J2" t="n">
         <v>391029.0597377089</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452706</v>
+        <v>406822.1373452707</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.8849321422</v>
       </c>
       <c r="M2" t="n">
         <v>410520.8849321423</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
       <c r="O2" t="n">
         <v>410520.8849321423</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284549</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26427,37 +26427,37 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758825</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758785</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="H4" t="n">
-        <v>787.793690575863</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905757991</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758514</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="K4" t="n">
         <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26491,10 +26491,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401365.2115264314</v>
+        <v>-401365.2115264316</v>
       </c>
       <c r="C6" t="n">
         <v>188602.667688113</v>
@@ -26528,40 +26528,40 @@
         <v>188602.667688113</v>
       </c>
       <c r="E6" t="n">
-        <v>-226906.0963784798</v>
+        <v>-227003.5555044519</v>
       </c>
       <c r="F6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724442</v>
       </c>
       <c r="G6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724443</v>
       </c>
       <c r="H6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724443</v>
       </c>
       <c r="I6" t="n">
-        <v>298253.9400984163</v>
+        <v>298156.4809724443</v>
       </c>
       <c r="J6" t="n">
-        <v>121830.7209058234</v>
+        <v>121733.2617798513</v>
       </c>
       <c r="K6" t="n">
-        <v>247078.90730743</v>
+        <v>247060.4135694954</v>
       </c>
       <c r="L6" t="n">
-        <v>279256.2913793536</v>
+        <v>279256.2913793537</v>
       </c>
       <c r="M6" t="n">
         <v>154798.1829463834</v>
       </c>
       <c r="N6" t="n">
-        <v>289599.1981802205</v>
+        <v>289599.1981802206</v>
       </c>
       <c r="O6" t="n">
         <v>289599.1981802206</v>
       </c>
       <c r="P6" t="n">
-        <v>245436.592877375</v>
+        <v>245436.5928773748</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108366</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>243.6049351030954</v>
       </c>
       <c r="F2" t="n">
-        <v>228.2549935850787</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>72.98106384508455</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>124.3151694294417</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.211934777025306</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>362.4528713611361</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>263.9318516912614</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>22.54869530067501</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>284.6296653965414</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>41.39267045366142</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>38.46332039683776</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>89.56002855569147</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-4.500905918474239e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.548983163957018e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31130,7 +31130,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31142,7 +31142,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>115.4815392304388</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31601,16 +31601,16 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>160.69674311333</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31844,7 +31844,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31853,7 +31853,7 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>336.5634504248605</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31862,7 +31862,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565527</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32075,13 +32075,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>372.2688744803118</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32090,16 +32090,16 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -32321,16 +32321,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>234.549050918124</v>
       </c>
       <c r="O18" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32476,7 +32476,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565519</v>
@@ -32549,10 +32549,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>179.5948933183438</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32567,10 +32567,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32783,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>328.1158369504599</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,7 +33020,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -33035,16 +33035,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>137.4075963926897</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>230.5917280146941</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927169</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,34 +33494,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>18.50615977666591</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304423</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>328.5774119587766</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,10 +33968,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -33980,22 +33980,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565502</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,34 +34205,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,22 +34442,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>153.2045953659866</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34469,7 +34469,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>242.1053372686584</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>392.982708636915</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>261.5850095600748</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>587.8295252571456</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35510,7 +35510,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>604.5548400038967</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
@@ -35738,16 +35738,16 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.9849829127205</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>582.5497131783442</v>
       </c>
       <c r="O18" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221117</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.2186913565634</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
@@ -36215,13 +36215,13 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197786</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>676.1164992106801</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629097</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>485.4082586529099</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629098</v>
+        <v>554.1627578426757</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>88.60167342649349</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109055</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629098</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>676.5780742189968</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197786</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>163.1847820324427</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>6.528285267804585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>152.4580040397287</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
